--- a/ProjectDocumention/lignesDeCode.xlsx
+++ b/ProjectDocumention/lignesDeCode.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\Documents\Arduino\ApeRobot\ProjectDocumention\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="0" windowWidth="23910" windowHeight="12045"/>
   </bookViews>
   <sheets>
-    <sheet name="27072017" sheetId="1" r:id="rId1"/>
+    <sheet name="23052018" sheetId="2" r:id="rId1"/>
+    <sheet name="27072017" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>Arduino Robot</t>
   </si>
@@ -40,11 +36,14 @@
   <si>
     <t>Octave</t>
   </si>
+  <si>
+    <t xml:space="preserve">Python </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -82,10 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -95,8 +97,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,13 +435,611 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="2">
+        <f>4096+276+597+528+585</f>
+        <v>6082</v>
+      </c>
+      <c r="C2" s="2">
+        <v>864</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1453</v>
+      </c>
+      <c r="F2" s="2">
+        <v>204</v>
+      </c>
+      <c r="H2" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>94</v>
+      </c>
+      <c r="K2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2">
+        <v>283</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2">
+        <v>52</v>
+      </c>
+      <c r="H3" s="2">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>164</v>
+      </c>
+      <c r="C4" s="2">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2">
+        <v>67</v>
+      </c>
+      <c r="H4" s="2">
+        <v>53</v>
+      </c>
+      <c r="I4" s="2">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>187</v>
+      </c>
+      <c r="C5" s="2">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2">
+        <v>180</v>
+      </c>
+      <c r="F5" s="2">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>51</v>
+      </c>
+      <c r="F6" s="2">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2">
+        <v>347</v>
+      </c>
+      <c r="K6">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>248</v>
+      </c>
+      <c r="F7" s="2">
+        <v>358</v>
+      </c>
+      <c r="H7" s="2">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>81</v>
+      </c>
+      <c r="F8" s="2">
+        <v>107</v>
+      </c>
+      <c r="H8" s="2">
+        <v>160</v>
+      </c>
+      <c r="I8" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>323</v>
+      </c>
+      <c r="F9" s="2">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2">
+        <v>41</v>
+      </c>
+      <c r="I9" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2">
+        <v>25</v>
+      </c>
+      <c r="H10" s="2">
+        <v>150</v>
+      </c>
+      <c r="I10" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>287</v>
+      </c>
+      <c r="F11" s="2">
+        <v>242</v>
+      </c>
+      <c r="H11" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2">
+        <v>42</v>
+      </c>
+      <c r="I12" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="2">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="2">
+        <v>33</v>
+      </c>
+      <c r="H15" s="2">
+        <v>118</v>
+      </c>
+      <c r="I15" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2">
+        <v>69</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>86</v>
+      </c>
+      <c r="I16" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>75</v>
+      </c>
+      <c r="H17" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" s="2">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2">
+        <v>33</v>
+      </c>
+      <c r="I18" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="2">
+        <v>103</v>
+      </c>
+      <c r="H19" s="2">
+        <v>31</v>
+      </c>
+      <c r="I19" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F20" s="2">
+        <v>24</v>
+      </c>
+      <c r="H20" s="2">
+        <v>97</v>
+      </c>
+      <c r="I20" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>1149</v>
+      </c>
+      <c r="H21" s="2">
+        <v>82</v>
+      </c>
+      <c r="I21" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="2">
+        <v>1080</v>
+      </c>
+      <c r="H22" s="2">
+        <v>56</v>
+      </c>
+      <c r="I22" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="2">
+        <v>1251</v>
+      </c>
+      <c r="H23" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="2">
+        <v>57</v>
+      </c>
+      <c r="H24" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <v>125</v>
+      </c>
+      <c r="H25" s="2">
+        <v>91</v>
+      </c>
+      <c r="I25" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="2">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2">
+        <v>295</v>
+      </c>
+      <c r="I26" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>40</v>
+      </c>
+      <c r="I27" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>105</v>
+      </c>
+      <c r="I29" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>50</v>
+      </c>
+      <c r="I30" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>64</v>
+      </c>
+      <c r="I31" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>26</v>
+      </c>
+      <c r="I32" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>16</v>
+      </c>
+      <c r="I34" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>22</v>
+      </c>
+      <c r="I35" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f>SUM(B50:K50)</f>
+        <v>23348</v>
+      </c>
+      <c r="B50" s="3">
+        <f>SUM(B2:B15)</f>
+        <v>7605</v>
+      </c>
+      <c r="C50" s="3">
+        <f>SUM(C2:C15)</f>
+        <v>1286</v>
+      </c>
+      <c r="D50" s="3">
+        <f>SUM(D2:D15)</f>
+        <v>1730</v>
+      </c>
+      <c r="F50" s="3">
+        <f>SUM(F2:F26)</f>
+        <v>5890</v>
+      </c>
+      <c r="H50" s="3">
+        <f>SUM(H2:H49)</f>
+        <v>2266</v>
+      </c>
+      <c r="I50" s="3">
+        <f>SUM(I2:I49)</f>
+        <v>3785</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3">
+        <f>SUM(K2:K49)</f>
+        <v>786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <f>SUM(B50:D50)</f>
+        <v>10621</v>
+      </c>
+      <c r="F51" s="3">
+        <f>SUM(F50:H50)</f>
+        <v>8156</v>
+      </c>
+      <c r="H51" s="4">
+        <f>SUM(H50:I50)</f>
+        <v>6051</v>
+      </c>
+      <c r="I51" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H51:I51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +1073,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="C2" s="2">
         <v>864</v>
@@ -813,19 +1441,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H49" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <f>SUM(B50:H50)</f>
-        <v>17231</v>
+        <f>SUM(B50:J50)</f>
+        <v>17131</v>
       </c>
       <c r="B50" s="3">
         <f>SUM(B2:B15)</f>
-        <v>6223</v>
+        <v>6123</v>
       </c>
       <c r="C50" s="3">
         <f>SUM(C2:C15)</f>
@@ -843,11 +1471,16 @@
         <f>SUM(H2:H49)</f>
         <v>3676</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
+        <f>SUM(J2:J49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <f>SUM(B50:D50)</f>
-        <v>9239</v>
+        <v>9139</v>
       </c>
       <c r="F51" s="3">
         <f>SUM(F50:H50)</f>
